--- a/accums-service/src/test/resources/jmeter/report/ClaimUtilization_SpendingSummary_Inquiry_Report.xlsx
+++ b/accums-service/src/test/resources/jmeter/report/ClaimUtilization_SpendingSummary_Inquiry_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Label</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Accums Ledger Inquiry Performance Test:BASPIKES 10 with member  ID</t>
+  </si>
+  <si>
+    <t>Request/sec</t>
   </si>
 </sst>
 </file>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,6 +567,9 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
@@ -608,6 +614,10 @@
       <c r="K3">
         <v>481.6</v>
       </c>
+      <c r="L3">
+        <f>H3*60</f>
+        <v>1078.7483999999999</v>
+      </c>
       <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
@@ -651,6 +661,10 @@
       </c>
       <c r="K4">
         <v>481.6</v>
+      </c>
+      <c r="L4">
+        <f>H4*60</f>
+        <v>1078.7483999999999</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -726,6 +740,9 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -767,6 +784,10 @@
       <c r="M10">
         <v>3.23</v>
       </c>
+      <c r="N10">
+        <f>K10*60</f>
+        <v>1078.7483999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -807,6 +828,10 @@
       </c>
       <c r="M11">
         <v>3.23</v>
+      </c>
+      <c r="N11">
+        <f>K11*60</f>
+        <v>1078.7483999999999</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -845,7 +870,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K4"/>
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -926,6 +951,9 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
@@ -970,6 +998,10 @@
       <c r="K3">
         <v>474.7</v>
       </c>
+      <c r="L3">
+        <f>H3*60</f>
+        <v>1220.0082</v>
+      </c>
       <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1013,6 +1045,10 @@
       </c>
       <c r="K4">
         <v>474.7</v>
+      </c>
+      <c r="L4">
+        <f>H4*60</f>
+        <v>1220.0082</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1088,6 +1124,9 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1129,6 +1168,10 @@
       <c r="M10">
         <v>3.65</v>
       </c>
+      <c r="N10">
+        <f>K10*60</f>
+        <v>1220.0082</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1169,6 +1212,10 @@
       </c>
       <c r="M11">
         <v>3.65</v>
+      </c>
+      <c r="N11">
+        <f>K11*60</f>
+        <v>1220.0082</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1206,7 +1253,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N11"/>
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,6 +1334,9 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1331,6 +1381,10 @@
       <c r="K3">
         <v>493.2</v>
       </c>
+      <c r="L3">
+        <f>H3*60</f>
+        <v>590.63459999999998</v>
+      </c>
       <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1374,6 +1428,10 @@
       </c>
       <c r="K4">
         <v>493.2</v>
+      </c>
+      <c r="L4">
+        <f>H4*60</f>
+        <v>590.63459999999998</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1449,6 +1507,9 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1490,6 +1551,10 @@
       <c r="M10">
         <v>1.76</v>
       </c>
+      <c r="N10">
+        <f>K10*60</f>
+        <v>590.63459999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1530,6 +1595,10 @@
       </c>
       <c r="M11">
         <v>1.76</v>
+      </c>
+      <c r="N11">
+        <f>K11*60</f>
+        <v>590.63459999999998</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1566,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1648,6 +1717,9 @@
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1692,6 +1764,10 @@
       <c r="K3">
         <v>494.8</v>
       </c>
+      <c r="L3">
+        <f>H3*60</f>
+        <v>828.75480000000005</v>
+      </c>
       <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1735,6 +1811,10 @@
       </c>
       <c r="K4">
         <v>494.8</v>
+      </c>
+      <c r="L4">
+        <f>H4*60</f>
+        <v>828.75480000000005</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>23</v>
@@ -1810,6 +1890,9 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1851,6 +1934,10 @@
       <c r="M10">
         <v>2.46</v>
       </c>
+      <c r="N10">
+        <f>K10*60</f>
+        <v>828.75480000000005</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1891,6 +1978,10 @@
       </c>
       <c r="M11">
         <v>2.46</v>
+      </c>
+      <c r="N11">
+        <f>K11*60</f>
+        <v>828.75480000000005</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
